--- a/fuentes/contenidos/grado07/guion02/SolicitudGrafica_LE_07_02_REC320.xlsx
+++ b/fuentes/contenidos/grado07/guion02/SolicitudGrafica_LE_07_02_REC320.xlsx
@@ -395,9 +395,6 @@
     <t>Área:</t>
   </si>
   <si>
-    <t>CN_08_01_REC10</t>
-  </si>
-  <si>
     <t>CN_08_02_REC10_IMG01</t>
   </si>
   <si>
@@ -606,6 +603,9 @@
   </si>
   <si>
     <t>Hombre y perro con radio antiguo.</t>
+  </si>
+  <si>
+    <t>LE_07_02_REC320</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2385,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2407,7 +2407,7 @@
     <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2426,7 +2426,7 @@
         <v>Ubicación de la imagen en el recurso M9B</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
@@ -2443,7 +2443,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
       <c r="L2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
@@ -2457,7 +2457,7 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2472,7 +2472,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
       <c r="L3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
@@ -2486,13 +2486,13 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2518,13 +2518,13 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -2551,7 +2551,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2581,7 +2581,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2604,7 +2604,7 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.25" thickBot="1">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2677,21 +2677,21 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M9B</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG01n.png</v>
+        <v>LE_07_02_REC320_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2699,14 +2699,14 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG01a.png</v>
+        <v>LE_07_02_REC320_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2749,7 +2749,7 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="12" spans="1:16" s="11" customFormat="1">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2784,7 +2784,7 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="13" spans="1:16" s="11" customFormat="1">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2819,7 +2819,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="14" spans="1:16" s="11" customFormat="1">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2854,7 +2854,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="15" spans="1:16" s="11" customFormat="1">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2889,7 +2889,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="15">
+    <row r="16" spans="1:16" s="11" customFormat="1">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2924,7 +2924,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="17" spans="1:15" s="11" customFormat="1">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2959,7 +2959,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="18" spans="1:15" s="11" customFormat="1">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2994,7 +2994,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="19" spans="1:15" s="11" customFormat="1">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3029,7 +3029,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="20" spans="1:15" s="11" customFormat="1">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3064,7 +3064,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="21" spans="1:15" s="11" customFormat="1">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3099,7 +3099,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="22" spans="1:15" s="11" customFormat="1">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3134,7 +3134,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="23" spans="1:15" s="11" customFormat="1">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3169,7 +3169,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="24" spans="1:15" s="11" customFormat="1">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3204,7 +3204,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="25" spans="1:15" s="11" customFormat="1">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3235,7 +3235,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="26" spans="1:15" s="11" customFormat="1">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3266,7 +3266,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="27" spans="1:15" s="11" customFormat="1">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3298,7 +3298,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="28" spans="1:15" s="11" customFormat="1">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3329,7 +3329,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="29" spans="1:15" s="11" customFormat="1">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3360,7 +3360,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="30" spans="1:15" s="11" customFormat="1">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3391,7 +3391,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="31" spans="1:15" s="11" customFormat="1">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3422,7 +3422,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="32" spans="1:15" s="11" customFormat="1">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3453,7 +3453,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="33" spans="1:15" s="11" customFormat="1">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3484,7 +3484,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="34" spans="1:15" s="11" customFormat="1">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3516,7 +3516,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="35" spans="1:15" s="11" customFormat="1">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3548,7 +3548,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="36" spans="1:15" s="11" customFormat="1">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3580,7 +3580,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="37" spans="1:15" s="11" customFormat="1">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3611,7 +3611,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="38" spans="1:15" s="11" customFormat="1">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3642,7 +3642,7 @@
       <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="39" spans="1:15" s="11" customFormat="1">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3673,7 +3673,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="40" spans="1:15" s="11" customFormat="1">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3704,7 +3704,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="41" spans="1:15" s="11" customFormat="1">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3735,7 +3735,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="42" spans="1:15" s="11" customFormat="1">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3766,7 +3766,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="43" spans="1:15" s="11" customFormat="1">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3797,7 +3797,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="44" spans="1:15" s="11" customFormat="1">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3828,7 +3828,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="45" spans="1:15" s="11" customFormat="1">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3859,7 +3859,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="46" spans="1:15" s="11" customFormat="1">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3890,7 +3890,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="47" spans="1:15" s="11" customFormat="1">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3921,7 +3921,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="15">
+    <row r="48" spans="1:15" s="11" customFormat="1">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3952,7 +3952,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="49" spans="1:11" s="11" customFormat="1">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3983,7 +3983,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="50" spans="1:11" s="11" customFormat="1">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4014,7 +4014,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="51" spans="1:11" s="11" customFormat="1">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4045,7 +4045,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="52" spans="1:11" s="11" customFormat="1">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4076,7 +4076,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="53" spans="1:11" s="11" customFormat="1">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4107,7 +4107,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="54" spans="1:11" s="11" customFormat="1">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4138,7 +4138,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="55" spans="1:11" s="11" customFormat="1">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4169,7 +4169,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="56" spans="1:11" s="11" customFormat="1">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4200,7 +4200,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="57" spans="1:11" s="11" customFormat="1">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4231,7 +4231,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="58" spans="1:11" s="11" customFormat="1">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4262,7 +4262,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="59" spans="1:11" s="11" customFormat="1">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4293,7 +4293,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="60" spans="1:11" s="11" customFormat="1">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4324,7 +4324,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="61" spans="1:11" s="11" customFormat="1">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4355,7 +4355,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="62" spans="1:11" s="11" customFormat="1">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4386,7 +4386,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="63" spans="1:11" s="11" customFormat="1">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4417,7 +4417,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="64" spans="1:11" s="11" customFormat="1">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4448,7 +4448,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="65" spans="1:11" s="11" customFormat="1">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4479,7 +4479,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="66" spans="1:11" s="11" customFormat="1">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4510,7 +4510,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="67" spans="1:11" s="11" customFormat="1">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4541,7 +4541,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="68" spans="1:11" s="11" customFormat="1">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4572,7 +4572,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="69" spans="1:11" s="11" customFormat="1">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4603,7 +4603,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="70" spans="1:11" s="11" customFormat="1">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4634,7 +4634,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="71" spans="1:11" s="11" customFormat="1">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4665,7 +4665,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="72" spans="1:11" s="11" customFormat="1">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4696,7 +4696,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="73" spans="1:11" s="11" customFormat="1">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4727,7 +4727,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="74" spans="1:11" s="11" customFormat="1">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4758,7 +4758,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="75" spans="1:11" s="11" customFormat="1">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4789,7 +4789,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="11" customFormat="1">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4820,7 +4820,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="11" customFormat="1">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4851,7 +4851,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="78" spans="1:11" s="11" customFormat="1">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4882,7 +4882,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="79" spans="1:11" s="11" customFormat="1">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4913,7 +4913,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="80" spans="1:11" s="11" customFormat="1">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4944,7 +4944,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="81" spans="1:11" s="11" customFormat="1">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4975,7 +4975,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="82" spans="1:11" s="11" customFormat="1">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5006,7 +5006,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="83" spans="1:11" s="11" customFormat="1">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5037,7 +5037,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="84" spans="1:11" s="11" customFormat="1">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5068,7 +5068,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="85" spans="1:11" s="11" customFormat="1">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5099,7 +5099,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="86" spans="1:11" s="11" customFormat="1">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5130,7 +5130,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="87" spans="1:11" s="11" customFormat="1">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5161,7 +5161,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="88" spans="1:11" s="11" customFormat="1">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5192,7 +5192,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="89" spans="1:11" s="11" customFormat="1">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5223,7 +5223,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="90" spans="1:11" s="11" customFormat="1">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5254,7 +5254,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="91" spans="1:11" s="11" customFormat="1">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5285,7 +5285,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="92" spans="1:11" s="11" customFormat="1">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5316,7 +5316,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="93" spans="1:11" s="11" customFormat="1">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5347,7 +5347,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="94" spans="1:11" s="11" customFormat="1">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5378,7 +5378,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="95" spans="1:11" s="11" customFormat="1">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5409,7 +5409,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="96" spans="1:11" s="11" customFormat="1">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5440,7 +5440,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="97" spans="1:11" s="11" customFormat="1">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5471,7 +5471,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="98" spans="1:11" s="11" customFormat="1">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5502,7 +5502,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="99" spans="1:11" s="11" customFormat="1">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5533,7 +5533,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="100" spans="1:11" s="11" customFormat="1">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5564,7 +5564,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="101" spans="1:11" s="11" customFormat="1">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5595,7 +5595,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="102" spans="1:11" s="11" customFormat="1">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5626,7 +5626,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="103" spans="1:11" s="11" customFormat="1">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5657,7 +5657,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="104" spans="1:11" s="11" customFormat="1">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5688,7 +5688,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="105" spans="1:11" s="11" customFormat="1">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5719,7 +5719,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="106" spans="1:11" s="11" customFormat="1">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5750,7 +5750,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="107" spans="1:11" s="11" customFormat="1">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5781,7 +5781,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" ht="15">
+    <row r="108" spans="1:11" s="11" customFormat="1">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5881,7 +5881,7 @@
     <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="63.25">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.75">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6209,7 +6209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="108" t="s">
         <v>63</v>
@@ -6671,7 +6671,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>70</v>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="40"/>
     </row>
@@ -6696,7 +6696,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>74</v>
@@ -6714,10 +6714,10 @@
         <v>76</v>
       </c>
       <c r="H4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6725,7 +6725,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>78</v>
@@ -6743,10 +6743,10 @@
         <v>76</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6754,7 +6754,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>79</v>
@@ -6772,10 +6772,10 @@
         <v>76</v>
       </c>
       <c r="H6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6799,7 +6799,7 @@
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -6808,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>81</v>
@@ -6826,10 +6826,10 @@
         <v>76</v>
       </c>
       <c r="H8" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6837,7 +6837,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>83</v>
@@ -6855,10 +6855,10 @@
         <v>76</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6866,7 +6866,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>85</v>
@@ -6884,10 +6884,10 @@
         <v>76</v>
       </c>
       <c r="H10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6895,7 +6895,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>87</v>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="42"/>
     </row>
@@ -6920,7 +6920,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="73" t="s">
         <v>90</v>
@@ -6938,10 +6938,10 @@
         <v>76</v>
       </c>
       <c r="H12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6949,7 +6949,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>92</v>
@@ -6967,10 +6967,10 @@
         <v>76</v>
       </c>
       <c r="H13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.75" customHeight="1">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="77" customFormat="1" ht="14.75" customHeight="1">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="77" t="s">
@@ -7041,10 +7041,10 @@
         <v>116</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>102</v>
@@ -7063,10 +7063,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>104</v>
@@ -7080,13 +7080,13 @@
     </row>
     <row r="18" spans="1:10" ht="14.75" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>71</v>
@@ -7099,17 +7099,17 @@
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" ht="14.75" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44" t="s">
@@ -7119,21 +7119,21 @@
         <v>93</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="14.75" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44" t="s">
@@ -7143,21 +7143,21 @@
         <v>93</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="14.75" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
@@ -7167,24 +7167,24 @@
         <v>93</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.75" customHeight="1">
       <c r="A22" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>71</v>
@@ -7193,22 +7193,22 @@
         <v>93</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.75" customHeight="1">
       <c r="A23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>71</v>
@@ -7217,24 +7217,24 @@
         <v>93</v>
       </c>
       <c r="F23" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.75" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44" t="s">
@@ -7244,23 +7244,23 @@
         <v>93</v>
       </c>
       <c r="F24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>177</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="14.75" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>71</v>
@@ -7269,22 +7269,22 @@
         <v>93</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.75" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>71</v>
@@ -7293,27 +7293,27 @@
         <v>93</v>
       </c>
       <c r="F26" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.75" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>71</v>
@@ -7322,22 +7322,22 @@
         <v>93</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.75" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>71</v>
@@ -7346,22 +7346,22 @@
         <v>93</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.75" customHeight="1">
       <c r="A29" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>71</v>
@@ -7370,27 +7370,27 @@
         <v>93</v>
       </c>
       <c r="F29" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H29" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.75" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>71</v>
@@ -7399,7 +7399,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -7407,13 +7407,13 @@
     </row>
     <row r="31" spans="1:10" ht="14.75" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -7424,10 +7424,10 @@
     </row>
     <row r="32" spans="1:10" ht="14.75" customHeight="1">
       <c r="A32" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="33" spans="1:9" ht="14.75" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
@@ -7452,7 +7452,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -7460,13 +7460,13 @@
     </row>
     <row r="34" spans="1:9" ht="14.75" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -7480,10 +7480,10 @@
         <v>95</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>71</v>
@@ -7492,16 +7492,16 @@
         <v>93</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H35" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.75" customHeight="1">
@@ -7509,10 +7509,10 @@
         <v>95</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>71</v>
@@ -7521,27 +7521,27 @@
         <v>93</v>
       </c>
       <c r="F36" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="44" t="s">
-        <v>182</v>
-      </c>
       <c r="H36" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.75" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>71</v>
@@ -7550,7 +7550,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
@@ -7558,13 +7558,13 @@
     </row>
     <row r="38" spans="1:9" ht="14.75" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>71</v>
@@ -7573,7 +7573,7 @@
         <v>93</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="53" t="s">
         <v>22</v>
@@ -7605,10 +7605,10 @@
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
@@ -7619,24 +7619,24 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="56" t="s">
         <v>128</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>129</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="31.75">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
@@ -7647,21 +7647,21 @@
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="56" t="s">
         <v>131</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>132</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="47.5">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="56" t="s">
         <v>113</v>
